--- a/biology/Médecine/Carlo_Fracassati/Carlo_Fracassati.xlsx
+++ b/biology/Médecine/Carlo_Fracassati/Carlo_Fracassati.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carlo Fracassati, né en 1630[1] et mort en 1672[1], est un médecin italien du XVIIe siècle.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carlo Fracassati, né en 1630 et mort en 1672, est un médecin italien du XVIIe siècle.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Carlo Fracassati exerça à Bologne[1], où le théâtre anatomique du palais de l'Archiginnasio conserve une statue de lui[2]. Il entretint une correspondance avec Marcello Malpighi par laquelle ils s'échangèrent des traités d'anatomie sur le cerveau[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Carlo Fracassati exerça à Bologne, où le théâtre anatomique du palais de l'Archiginnasio conserve une statue de lui. Il entretint une correspondance avec Marcello Malpighi par laquelle ils s'échangèrent des traités d'anatomie sur le cerveau.
 </t>
         </is>
       </c>
@@ -542,7 +556,9 @@
           <t>Œuvres</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Prælectio medica in aphorismos Hippocratis, Bologne, 1659, in-4° ;
 Dissertatio epistolica responsoria de cerebro ; Exercitatio epistolica de lingua, ad Johannem Alphonsum Borellium. Ces deux lettres , dont la première est adressée à Malpighi, sont insérées parmi celles de ce professeur illustre, collègue et ami de l’auteur, Bologne, 1665, in-12, ainsi que dans le tome second de la Bibliotheca anatomica de Le Clerc et Manget, Genève, 1699, in-fol. Fracassati est surtout recommandable par les injections diversement colorées qu’il a pratiquées dans les canaux les plus déliés. Il combat le système de Willis sur la différence des fonctions départies aux nerfs du cerveau et à ceux du cervelet ; il prétend avoir découvert le canal de la vessie natatoire des poissons ; il donne des détails sur la structure de la langue du veau et du chien ; il décrit les papilles qui revêtent cet organe musculeux et dont la langue des poissons est, selon lui, dépourvue. Fracassati a publié en outre l’éloge funèbre de Bartolomeo Massari, dont il avait été le disciple.</t>
